--- a/editor/requested-certificates-list.xlsx
+++ b/editor/requested-certificates-list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -35,16 +35,34 @@
     <t>Date</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sonnyperaltabanzon@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Brgy. Aguado</t>
+  </si>
+  <si>
+    <t>2023-04-16</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2023-04-15</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2023-04-13</t>
+  </si>
+  <si>
     <t>Sonny Banzon</t>
-  </si>
-  <si>
-    <t>sonnyperaltabanzon@gmail.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Brgy. Aguado</t>
   </si>
   <si>
     <t>2023-04-17</t>
@@ -387,7 +405,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -417,7 +435,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -433,6 +451,66 @@
       </c>
       <c r="F2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
